--- a/Graph.xlsx
+++ b/Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maayk\Documents\PAA\PAA_Sort_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623E154-4460-4F0B-8EA2-5544004B7598}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702268CB-2570-48B0-ABF1-AD2329201568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2978A7E-55DA-450F-A757-744BEE368AE8}"/>
   </bookViews>
@@ -273,6 +273,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -281,6 +287,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,6 +365,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -364,6 +379,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,6 +457,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -447,6 +471,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,6 +826,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -807,6 +840,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,6 +918,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>107</c:v>
                 </c:pt>
@@ -890,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,6 +1010,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>55</c:v>
                 </c:pt>
@@ -973,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,6 +1386,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19222</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1340,6 +1400,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,6 +1478,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24279</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>11037</c:v>
                 </c:pt>
@@ -1423,6 +1492,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1498,6 +1570,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33643</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>5494</c:v>
                 </c:pt>
@@ -1506,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3760,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53316669-B827-441B-A46D-5844A209BE19}">
   <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,11 +3876,29 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3857,6 +3956,15 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -3886,11 +3994,29 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>243</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>4</v>
       </c>
+      <c r="C16">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>242</v>
+      </c>
+      <c r="E16">
+        <v>295</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -3948,6 +4074,15 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
@@ -3977,11 +4112,29 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
+      <c r="C27">
+        <v>19414</v>
+      </c>
+      <c r="D27">
+        <v>24348</v>
+      </c>
+      <c r="E27">
+        <v>33916</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>4</v>
       </c>
+      <c r="C28">
+        <v>19222</v>
+      </c>
+      <c r="D28">
+        <v>24279</v>
+      </c>
+      <c r="E28">
+        <v>33643</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -4038,6 +4191,15 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>8</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
